--- a/Dokumentation/DailyScrumTeam.xlsx
+++ b/Dokumentation/DailyScrumTeam.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savan_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schueler\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA877CE-A8B0-4215-8D40-B8A0B9F88E4D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{51F9D801-FDA5-4616-9BD3-28FE05DD278D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="67">
   <si>
     <t>Datum:</t>
   </si>
@@ -208,12 +207,30 @@
   </si>
   <si>
     <t>Melanie, Bugelnig, Unterkofler</t>
+  </si>
+  <si>
+    <t>WebService User Fertiggestellt</t>
+  </si>
+  <si>
+    <t>Webservice Category und Article fertiggestellt</t>
+  </si>
+  <si>
+    <t>Anbindung Android zu Webservice</t>
+  </si>
+  <si>
+    <t>Webservice Kommentar fertiggestellt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehlerbehebung Android </t>
+  </si>
+  <si>
+    <t>User GUI 70% mit Webservice anbindung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A288D355-CEE6-4285-B868-02E11E567358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,6 +1595,9 @@
       <c r="C63" t="s">
         <v>58</v>
       </c>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
@@ -1594,7 +1614,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -1604,18 +1624,21 @@
       <c r="C65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -1626,7 +1649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -1634,15 +1657,18 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>37</v>
       </c>
       <c r="B70" s="2">
         <v>43229</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -1658,25 +1684,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>35</v>
       </c>
       <c r="B75" s="2">
         <v>43234</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -1684,15 +1716,18 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>37</v>
       </c>
       <c r="B77" s="2">
         <v>43236</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -1700,15 +1735,21 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>32</v>
       </c>
       <c r="B79" s="2">
         <v>43238</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>33</v>
       </c>

--- a/Dokumentation/DailyScrumTeam.xlsx
+++ b/Dokumentation/DailyScrumTeam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schueler\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schueler\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="69">
   <si>
     <t>Datum:</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>User GUI 70% mit Webservice anbindung</t>
+  </si>
+  <si>
+    <t>Ratings Service fertig</t>
+  </si>
+  <si>
+    <t>Android Project fertig mit den Userstories: Login, Register, Produktansicht (einzeln und alle), Artikel filtern, Kommentare(adden, löschen, bearbeiten), Artikel in die Liste einfügen und wieder Löschen</t>
   </si>
 </sst>
 </file>
@@ -619,7 +625,7 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,6 +1740,9 @@
       <c r="B78" s="2">
         <v>43237</v>
       </c>
+      <c r="D78" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -1755,13 +1764,13 @@
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>34</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -1777,15 +1786,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>37</v>
       </c>
       <c r="B84" s="2">
         <v>43243</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -1793,7 +1808,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -1801,17 +1816,17 @@
         <v>43245</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -1819,7 +1834,7 @@
         <v>43248</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -1827,7 +1842,7 @@
         <v>43249</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>37</v>
       </c>
@@ -1835,7 +1850,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -1843,7 +1858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -1851,7 +1866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -1859,7 +1874,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>34</v>
       </c>
@@ -1867,7 +1882,7 @@
         <v>43254</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>35</v>
       </c>

--- a/Dokumentation/DailyScrumTeam.xlsx
+++ b/Dokumentation/DailyScrumTeam.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schueler\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DEB6EB-B91D-49EF-9A24-2A4F625353DB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="76">
   <si>
     <t>Datum:</t>
   </si>
@@ -231,12 +232,33 @@
   </si>
   <si>
     <t>Android Project fertig mit den Userstories: Login, Register, Produktansicht (einzeln und alle), Artikel filtern, Kommentare(adden, löschen, bearbeiten), Artikel in die Liste einfügen und wieder Löschen</t>
+  </si>
+  <si>
+    <t>Deutsch Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webservice für Userapp fertig </t>
+  </si>
+  <si>
+    <t>BWM Test</t>
+  </si>
+  <si>
+    <t>Verbindung der App mit dem Webservice</t>
+  </si>
+  <si>
+    <t>E Schularbeit</t>
+  </si>
+  <si>
+    <t>Fertigstellung der Userapp / Adminapp</t>
+  </si>
+  <si>
+    <t>Adminapp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,11 +643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,13 +1786,13 @@
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>34</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -1778,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -1786,7 +1808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -1800,7 +1822,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -1808,57 +1830,94 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
       <c r="B86" s="2">
         <v>43245</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>35</v>
       </c>
       <c r="B89" s="2">
         <v>43248</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>72</v>
+      </c>
+      <c r="F89" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>36</v>
       </c>
       <c r="B90" s="2">
         <v>43249</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>37</v>
       </c>
       <c r="B91" s="2">
         <v>43250</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>38</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <f>+Q96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -1866,7 +1925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -1874,7 +1933,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>34</v>
       </c>
@@ -1882,7 +1941,7 @@
         <v>43254</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>35</v>
       </c>

--- a/Dokumentation/DailyScrumTeam.xlsx
+++ b/Dokumentation/DailyScrumTeam.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schueler\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DEB6EB-B91D-49EF-9A24-2A4F625353DB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="79">
   <si>
     <t>Datum:</t>
   </si>
@@ -253,12 +252,21 @@
   </si>
   <si>
     <t>Adminapp</t>
+  </si>
+  <si>
+    <t>Gui Admin Add Product fertig</t>
+  </si>
+  <si>
+    <t>GUI admin restock article fertig</t>
+  </si>
+  <si>
+    <t>Gui User Order fertig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,11 +651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,20 +1934,10 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>33</v>
-      </c>
-      <c r="B94" s="2">
-        <v>43253</v>
-      </c>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>34</v>
-      </c>
-      <c r="B95" s="2">
-        <v>43254</v>
-      </c>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -1949,7 +1947,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -1957,7 +1955,7 @@
         <v>43256</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>37</v>
       </c>
@@ -1965,43 +1963,55 @@
         <v>43257</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>38</v>
       </c>
       <c r="B99" s="2">
         <v>43258</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>32</v>
       </c>
       <c r="B100" s="2">
         <v>43259</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>33</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>34</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>35</v>
       </c>
       <c r="B103" s="2">
         <v>43262</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -2009,7 +2019,7 @@
         <v>43263</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>37</v>
       </c>
@@ -2017,16 +2027,16 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
     </row>
   </sheetData>
